--- a/data/trans_dic/P38A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.7409057806469116</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9563860344649769</v>
+        <v>0.9563860344649772</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.8762127009810572</v>
@@ -664,7 +664,7 @@
         <v>0.795934421536922</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9676226960823452</v>
+        <v>0.9676226960823453</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8276793517488633</v>
+        <v>0.8279137699088243</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6767126182494768</v>
+        <v>0.6810912784484072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9133754328005231</v>
+        <v>0.9126462116035037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8276174975659936</v>
+        <v>0.8347520722584028</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8070935133574002</v>
+        <v>0.807322342240598</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.956875132552229</v>
+        <v>0.9564186043440396</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8417978886391435</v>
+        <v>0.8427981215387846</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.758268906552834</v>
+        <v>0.7613620222857399</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9484233264704713</v>
+        <v>0.9432079821468562</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9082399404564198</v>
+        <v>0.9072800450792442</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7914509212705523</v>
+        <v>0.7927517789220621</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9788960130728451</v>
+        <v>0.9782215828326373</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9100621167750846</v>
+        <v>0.9127913338060989</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8902520093203136</v>
+        <v>0.8913505043735898</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9900805768166755</v>
+        <v>0.9911135631033463</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9005929613565675</v>
+        <v>0.9017210676710771</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8292996494484091</v>
+        <v>0.8301990970787561</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9813158667706882</v>
+        <v>0.9814394975278318</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8318279330046006</v>
+        <v>0.8333788154836356</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.832199662483982</v>
+        <v>0.831522223156434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8222716986681002</v>
+        <v>0.8246431011433494</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8974127359758749</v>
+        <v>0.8963005547927685</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9074253487159378</v>
+        <v>0.9065541716496499</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8754373231019209</v>
+        <v>0.8771227241424828</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8743723401869841</v>
+        <v>0.8753106330055457</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8804193902081169</v>
+        <v>0.8798915347782097</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8634056411807964</v>
+        <v>0.864728860687406</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8953058003276734</v>
+        <v>0.8935738746929687</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8934070448925898</v>
+        <v>0.8957863540905762</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9107089433229749</v>
+        <v>0.9113544595165117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9436625108031224</v>
+        <v>0.9452510695797641</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9506683838758723</v>
+        <v>0.9493275948140963</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9354076610490456</v>
+        <v>0.9333241376825652</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9146148643546304</v>
+        <v>0.9148421041200557</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9170261769686635</v>
+        <v>0.9178225510133654</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.915535089561057</v>
+        <v>0.9184385355016256</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.930686656387856</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.9700226043660125</v>
+        <v>0.9700226043660124</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.9049289757465336</v>
@@ -882,7 +882,7 @@
         <v>0.9159681281595523</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.9516524438533576</v>
+        <v>0.9516524438533573</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8457535706272439</v>
+        <v>0.8482618373060794</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8655431767079351</v>
+        <v>0.8644562656171486</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8934712876615182</v>
+        <v>0.8956080367613463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8955126982655072</v>
+        <v>0.8908015870218973</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9000355828349037</v>
+        <v>0.9036674122648922</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9447807764882521</v>
+        <v>0.948456245133447</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8814585636412956</v>
+        <v>0.8794624870218832</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8950227325525228</v>
+        <v>0.8949063286126504</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.932964400053157</v>
+        <v>0.9331432144424221</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9137510702179191</v>
+        <v>0.9168115114342019</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9293291259249511</v>
+        <v>0.9296577233320039</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9578179126156582</v>
+        <v>0.9596436615623113</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9500103245754864</v>
+        <v>0.9503167815345342</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.956181731642861</v>
+        <v>0.9541631454314577</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9837722744755147</v>
+        <v>0.9837519870694524</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9267816653206961</v>
+        <v>0.9245048565022325</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9362504298017061</v>
+        <v>0.9375887344317435</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9674965090425287</v>
+        <v>0.9669195772202859</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.9308838822302222</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.9325020066728805</v>
+        <v>0.9325020066728806</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.8462813295570639</v>
@@ -991,7 +991,7 @@
         <v>0.9264845988761188</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.9055063288971396</v>
+        <v>0.9055063288971392</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7627455815430133</v>
+        <v>0.7604199849069859</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8869767993744678</v>
+        <v>0.8879315308771425</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8035571243535873</v>
+        <v>0.8098702482614264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8489936696162281</v>
+        <v>0.8541031904234635</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8980720593973942</v>
+        <v>0.9019197038274397</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8959796225716498</v>
+        <v>0.8907157722551722</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8193547462402629</v>
+        <v>0.8185364336551268</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9058213410384459</v>
+        <v>0.9038006632989325</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.867161222194502</v>
+        <v>0.8687648408901868</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8458990009766839</v>
+        <v>0.8431633101155951</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9476768773782749</v>
+        <v>0.948548325068864</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9242981179718306</v>
+        <v>0.9228170158250494</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9152746459794978</v>
+        <v>0.9161694841306273</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9510384706194046</v>
+        <v>0.9550969252066028</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9585757289471923</v>
+        <v>0.9570116121447656</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8713061767441502</v>
+        <v>0.8723453465177746</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9442390741500236</v>
+        <v>0.9433686331418037</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9316080182672114</v>
+        <v>0.9340976344303634</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.8899347899753188</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8689307091707842</v>
+        <v>0.8689307091707841</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.9004187773906481</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8108324134250353</v>
+        <v>0.8149410166250373</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7177759980178277</v>
+        <v>0.7250683252828531</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7346360005358081</v>
+        <v>0.7332228567040958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8918997879327261</v>
+        <v>0.8955264311722518</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8384696610702758</v>
+        <v>0.8480604938502296</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8213448757467644</v>
+        <v>0.8202107294451414</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8655597682586976</v>
+        <v>0.8675599466466748</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8042690502582314</v>
+        <v>0.8010033758163581</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7969990215829538</v>
+        <v>0.7928682408175043</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9105486149694529</v>
+        <v>0.9106889545059393</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8294769119538862</v>
+        <v>0.8322399186024373</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8446562593859275</v>
+        <v>0.8470130019660611</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9603571287516136</v>
+        <v>0.9610494760485675</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9247367042876268</v>
+        <v>0.9282849789953176</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9039998126103106</v>
+        <v>0.9042198230868462</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9261284310278066</v>
+        <v>0.928154375760549</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8680023609668422</v>
+        <v>0.8690787206931126</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8708454219766177</v>
+        <v>0.866437020905764</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.9188085149140629</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.9707511551587552</v>
+        <v>0.9707511551587549</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.9318728607220381</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8702110164221695</v>
+        <v>0.8720459386367537</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8030473009463968</v>
+        <v>0.8023907009882131</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8939072310062056</v>
+        <v>0.8873379575089012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.917792591395863</v>
+        <v>0.9181161474322298</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8779052560428033</v>
+        <v>0.8827555036180041</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9388966165289355</v>
+        <v>0.9408432515855979</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9083058274163469</v>
+        <v>0.9052923602568328</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8549155636561959</v>
+        <v>0.8561100878958094</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9282119462597693</v>
+        <v>0.930463819165663</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9425365820285604</v>
+        <v>0.9424479554825466</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.893341825713299</v>
+        <v>0.8924798868910978</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9602943570613675</v>
+        <v>0.9595921484683566</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9717802685343249</v>
+        <v>0.9724082150713197</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9460926020585891</v>
+        <v>0.9440818094136409</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9880152969050491</v>
+        <v>0.9890239988640059</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9509037074081513</v>
+        <v>0.9501174142147695</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9104072234170368</v>
+        <v>0.911227208552681</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9677349119385044</v>
+        <v>0.9689365274600014</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8690580429018605</v>
+        <v>0.8705613352770354</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6860956358630748</v>
+        <v>0.689648339405473</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8058725645796199</v>
+        <v>0.8044642851283828</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9146692421532773</v>
+        <v>0.911607531563271</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7672610634782525</v>
+        <v>0.7656017573911799</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8868038739753592</v>
+        <v>0.8908896684071966</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9000829760021395</v>
+        <v>0.8995369697613737</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7396124667612962</v>
+        <v>0.7384267670933131</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8571441694565031</v>
+        <v>0.856639362275732</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9202235436709028</v>
+        <v>0.9197199043657238</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7590131429391969</v>
+        <v>0.7606296991114749</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8802498312833267</v>
+        <v>0.8790392668720219</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9515921887845691</v>
+        <v>0.9510549546094875</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8275649026108309</v>
+        <v>0.8244674195559908</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.931589202716116</v>
+        <v>0.9326592438400398</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9325025005831046</v>
+        <v>0.9307692697993759</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7869157093642526</v>
+        <v>0.7878922145743317</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8978283768911569</v>
+        <v>0.8997142686747183</v>
       </c>
     </row>
     <row r="25">
@@ -1409,7 +1409,7 @@
         <v>0.886883211868938</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.6346883884566222</v>
+        <v>0.6346883884566223</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.8202351589818737</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7566889951529578</v>
+        <v>0.756550592158497</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8613249074570976</v>
+        <v>0.8610804972774864</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5927793922529508</v>
+        <v>0.596370828361749</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7891492309306164</v>
+        <v>0.7923423503463461</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9244563720747253</v>
+        <v>0.9268935731044748</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6862864934624345</v>
+        <v>0.691676172215265</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.782211170297738</v>
+        <v>0.7818160148149608</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9018552200173465</v>
+        <v>0.9018083960691553</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6556090902714915</v>
+        <v>0.6530457410976085</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8170708354593824</v>
+        <v>0.8139920922267539</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9070761086346864</v>
+        <v>0.908082493583345</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6685775146723315</v>
+        <v>0.6718598229099741</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8445405092145788</v>
+        <v>0.8459529405014404</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9583663940974195</v>
+        <v>0.9590203358741453</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7492786840810115</v>
+        <v>0.7514890145080324</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8231709029127264</v>
+        <v>0.8227457678194845</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9298947268493544</v>
+        <v>0.9293444298434461</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7058594965699438</v>
+        <v>0.7041887874843347</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>0.8357689928054305</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8267377948136319</v>
+        <v>0.826737794813632</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.8966554755859145</v>
@@ -1527,7 +1527,7 @@
         <v>0.8983030903883276</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.8847406225284857</v>
+        <v>0.884740622528486</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.8752981958651023</v>
@@ -1536,7 +1536,7 @@
         <v>0.8677829664634463</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.8565456798385042</v>
+        <v>0.8565456798385043</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8403033303365247</v>
+        <v>0.8395914965679281</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8219678813510469</v>
+        <v>0.8227457582123848</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8109963246277484</v>
+        <v>0.8083818937269766</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8849122660205652</v>
+        <v>0.8859804056613121</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8884063227516598</v>
+        <v>0.8885244695954957</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.87379117783442</v>
+        <v>0.8730596105744955</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8666087613399014</v>
+        <v>0.8675972630099775</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8587403858584003</v>
+        <v>0.8594443244587743</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8459694009336848</v>
+        <v>0.8458804309687364</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8639756069771553</v>
+        <v>0.8646588366456438</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8490731066347381</v>
+        <v>0.8487249333306648</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8442453016218071</v>
+        <v>0.8419095313178221</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9066785364632092</v>
+        <v>0.9070197609050337</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9088317403685034</v>
+        <v>0.907768217339453</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8952533263088519</v>
+        <v>0.8949463036441371</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8834237181569313</v>
+        <v>0.8831356485151225</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8753563802856634</v>
+        <v>0.8758893944467259</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.8652948324096622</v>
+        <v>0.86571575457025</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>238709</v>
+        <v>238776</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>196862</v>
+        <v>198136</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>291225</v>
+        <v>290993</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>237729</v>
+        <v>239778</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>232127</v>
+        <v>232192</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>302431</v>
+        <v>302287</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>484583</v>
+        <v>485158</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>438672</v>
+        <v>440462</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>602160</v>
+        <v>598848</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>261943</v>
+        <v>261666</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>230241</v>
+        <v>230619</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>312116</v>
+        <v>311901</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>261411</v>
+        <v>262195</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>256044</v>
+        <v>256360</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>312926</v>
+        <v>313252</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>518428</v>
+        <v>519078</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>479765</v>
+        <v>480285</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>623043</v>
+        <v>623122</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>417255</v>
+        <v>418033</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>412742</v>
+        <v>412406</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>436336</v>
+        <v>437594</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>469128</v>
+        <v>468546</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>474660</v>
+        <v>474204</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>478421</v>
+        <v>479342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>895679</v>
+        <v>896640</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>897190</v>
+        <v>896653</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>930010</v>
+        <v>931435</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>449096</v>
+        <v>448227</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>443099</v>
+        <v>444279</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>483265</v>
+        <v>483608</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>493305</v>
+        <v>494136</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>497279</v>
+        <v>496578</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>511195</v>
+        <v>510056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>936902</v>
+        <v>937135</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>934495</v>
+        <v>935306</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>986160</v>
+        <v>989288</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>272433</v>
+        <v>273241</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>275732</v>
+        <v>275386</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>282331</v>
+        <v>283006</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>305388</v>
+        <v>303781</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>301863</v>
+        <v>303081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>336702</v>
+        <v>338012</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>584530</v>
+        <v>583206</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>585304</v>
+        <v>585228</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>627302</v>
+        <v>627422</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>294337</v>
+        <v>295322</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>296052</v>
+        <v>296156</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>302664</v>
+        <v>303241</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>323973</v>
+        <v>324077</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>320694</v>
+        <v>320017</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>350598</v>
+        <v>350591</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>614585</v>
+        <v>613075</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>612265</v>
+        <v>613140</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>650520</v>
+        <v>650133</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>284362</v>
+        <v>283495</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>326414</v>
+        <v>326765</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>299843</v>
+        <v>302199</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>329377</v>
+        <v>331360</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>347808</v>
+        <v>349298</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>378068</v>
+        <v>375847</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>623346</v>
+        <v>622724</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>684158</v>
+        <v>682632</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>689486</v>
+        <v>690761</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>315363</v>
+        <v>314343</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>348752</v>
+        <v>349072</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>344897</v>
+        <v>344345</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>355092</v>
+        <v>355439</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>368321</v>
+        <v>369893</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>404482</v>
+        <v>403822</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>662870</v>
+        <v>663660</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>713174</v>
+        <v>712517</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>740728</v>
+        <v>742708</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>171635</v>
+        <v>172505</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>151609</v>
+        <v>153150</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>151089</v>
+        <v>150798</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>193330</v>
+        <v>194116</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>183279</v>
+        <v>185375</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>186300</v>
+        <v>186043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>370841</v>
+        <v>371698</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>345681</v>
+        <v>344278</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>344693</v>
+        <v>342906</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>192743</v>
+        <v>192773</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>175203</v>
+        <v>175787</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>173716</v>
+        <v>174201</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>208169</v>
+        <v>208319</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>202135</v>
+        <v>202911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>205048</v>
+        <v>205098</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>396791</v>
+        <v>397659</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>373074</v>
+        <v>373537</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>376630</v>
+        <v>374724</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>238421</v>
+        <v>238924</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>210469</v>
+        <v>210297</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>241987</v>
+        <v>240209</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>256117</v>
+        <v>256208</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>238236</v>
+        <v>239552</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>247634</v>
+        <v>248147</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>502329</v>
+        <v>500662</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>456062</v>
+        <v>456699</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>496089</v>
+        <v>497293</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>258237</v>
+        <v>258213</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>234134</v>
+        <v>233908</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>259958</v>
+        <v>259768</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>271183</v>
+        <v>271358</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>256740</v>
+        <v>256195</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>260589</v>
+        <v>260855</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>525887</v>
+        <v>525452</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>485664</v>
+        <v>486101</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>517213</v>
+        <v>517855</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>572615</v>
+        <v>573606</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>447502</v>
+        <v>449820</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>579976</v>
+        <v>578962</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>630310</v>
+        <v>628200</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>527200</v>
+        <v>526060</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>684663</v>
+        <v>687818</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1213315</v>
+        <v>1212579</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>990610</v>
+        <v>989022</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1278640</v>
+        <v>1277887</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>606328</v>
+        <v>605996</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>495063</v>
+        <v>496117</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>633504</v>
+        <v>632633</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>655754</v>
+        <v>655383</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>568636</v>
+        <v>566508</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>719240</v>
+        <v>720066</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1257017</v>
+        <v>1254681</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1053967</v>
+        <v>1055274</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1339330</v>
+        <v>1342143</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>585582</v>
+        <v>585475</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>663832</v>
+        <v>663643</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>473081</v>
+        <v>475947</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>647749</v>
+        <v>650370</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>761942</v>
+        <v>763950</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>570531</v>
+        <v>575012</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1247387</v>
+        <v>1246757</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1438382</v>
+        <v>1438308</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1068251</v>
+        <v>1064075</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>632310</v>
+        <v>629927</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>699093</v>
+        <v>699868</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>533573</v>
+        <v>536193</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>693215</v>
+        <v>694374</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>789890</v>
+        <v>790429</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>622899</v>
+        <v>624736</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1312705</v>
+        <v>1312027</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1483103</v>
+        <v>1482225</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1150130</v>
+        <v>1147407</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2859870</v>
+        <v>2857447</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2769794</v>
+        <v>2772415</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2865057</v>
+        <v>2855821</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3136779</v>
+        <v>3140566</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>3140202</v>
+        <v>3140619</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3263488</v>
+        <v>3260755</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>6021296</v>
+        <v>6028164</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>5929050</v>
+        <v>5933910</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>6148186</v>
+        <v>6147539</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2940436</v>
+        <v>2942761</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2861131</v>
+        <v>2859958</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2982518</v>
+        <v>2974266</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3213935</v>
+        <v>3215145</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3212398</v>
+        <v>3208639</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3343646</v>
+        <v>3342499</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>6138128</v>
+        <v>6136126</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>6043773</v>
+        <v>6047453</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>6288636</v>
+        <v>6291695</v>
       </c>
     </row>
     <row r="40">
